--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -100,13 +112,19 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
@@ -118,37 +136,31 @@
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>’</t>
@@ -523,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L4">
         <v>26</v>
       </c>
-      <c r="K4">
-        <v>0.9</v>
-      </c>
-      <c r="L4">
-        <v>27</v>
-      </c>
       <c r="M4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>0.86</v>
@@ -734,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.725</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6857142857142857</v>
+        <v>0.775</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.5185185185185185</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6382978723404256</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1002,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.3939393939393939</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.572463768115942</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.375</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5641025641025641</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1134,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.2926829268292683</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1202,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.2686703096539162</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>803</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4285714285714285</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1252,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
       <c r="M16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1284,37 +1296,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1923076923076923</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>63</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.2641165755919854</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1334,115 +1346,187 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04026845637583892</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>0.1529411764705882</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>0.05571847507331378</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="C20">
         <v>13</v>
       </c>
-      <c r="E18">
-        <v>0.08</v>
-      </c>
-      <c r="F18">
-        <v>0.92</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>286</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.1643835616438356</v>
-      </c>
-      <c r="L18">
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="M18">
+      <c r="D21">
         <v>12</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
-      <c r="M19">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.05421686746987952</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>66</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.04545454545454546</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1454,21 +1538,45 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>588</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0.21</v>
+      </c>
+      <c r="F22">
+        <v>0.79</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.03148148148148148</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1480,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>523</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>0.02816901408450704</v>
+        <v>0.03841229193341869</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1506,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.02649769585253456</v>
+        <v>0.02592165898617511</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1532,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
